--- a/public/template/template_impor_sasaran.xlsx
+++ b/public/template/template_impor_sasaran.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristoforus Fasco .D\Documents\Bahan - Bahan Razen\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\emonev\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BDD54-35E5-48D2-95DD-B9E100CE6B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73B50C-A42F-4251-B367-F9147DC15A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92DF29B1-657A-46F2-A1D7-C0F51ECE3890}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Kode Misi</t>
-  </si>
-  <si>
-    <t>Kode Tujuan</t>
   </si>
   <si>
     <t>Kode Sasaran</t>
@@ -53,6 +47,9 @@
   </si>
   <si>
     <t>Mewujudkan Pemerintahan yang Akuntable</t>
+  </si>
+  <si>
+    <t>Tahun Perubahan</t>
   </si>
 </sst>
 </file>
@@ -407,53 +404,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E01D98B-E692-4B6F-ACA2-254A33EABCFE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/template_impor_sasaran.xlsx
+++ b/public/template/template_impor_sasaran.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\emonev\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73B50C-A42F-4251-B367-F9147DC15A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025409ED-E7E7-4F36-ACB8-28970BB0A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92DF29B1-657A-46F2-A1D7-C0F51ECE3890}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>Tahun Perubahan</t>
+  </si>
+  <si>
+    <t>Kode Misi</t>
+  </si>
+  <si>
+    <t>Kode Tujuan</t>
+  </si>
+  <si>
+    <t>1.01</t>
   </si>
 </sst>
 </file>
@@ -404,45 +413,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E01D98B-E692-4B6F-ACA2-254A33EABCFE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
     </row>
